--- a/PythonResources/Data/Consumption/Sympheny/post_1676_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1676_hea.xlsx
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>61.17301097082127</v>
+        <v>61.17301097082126</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>23.02157999286079</v>
+        <v>23.02157999286078</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.22229321054048</v>
+        <v>12.22229321054047</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>51.77480890302925</v>
+        <v>51.77480890302924</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>81.57397904307618</v>
+        <v>81.57397904307616</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>76.49066187749514</v>
+        <v>76.49066187749513</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>65.02425748987001</v>
+        <v>65.02425748987</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>63.85314561937927</v>
+        <v>63.85314561937926</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>43.73176731800729</v>
+        <v>43.73176731800728</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>74.07839415827361</v>
+        <v>74.0783941582736</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>48.52934022089351</v>
+        <v>48.5293402208935</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>40.3054738050175</v>
+        <v>40.30547380501749</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>46.2313702067499</v>
+        <v>46.23137020674989</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>39.49747695142817</v>
+        <v>39.49747695142816</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>45.66281239174689</v>
+        <v>45.66281239174688</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>73.03652661583253</v>
+        <v>73.03652661583251</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>52.3301785212925</v>
+        <v>52.33017852129249</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>45.76216347385309</v>
+        <v>45.76216347385308</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>58.30941385206126</v>
+        <v>58.30941385206125</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>62.39599641515506</v>
+        <v>62.39599641515505</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>60.35768734126541</v>
+        <v>60.3576873412654</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>64.48383449457849</v>
+        <v>64.48383449457847</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>65.27395401480948</v>
+        <v>65.27395401480946</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>63.9985088545553</v>
+        <v>63.99850885455529</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>65.12302242989888</v>
+        <v>65.12302242989887</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>63.25440148739414</v>
+        <v>63.25440148739413</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>60.76798679539129</v>
+        <v>60.76798679539128</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>117.5844967765117</v>
+        <v>117.5844967765116</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>48.12900518208211</v>
+        <v>48.1290051820821</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>45.20210471897126</v>
+        <v>45.20210471897125</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>59.75132336227508</v>
+        <v>59.75132336227507</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>70.81446200070221</v>
+        <v>70.81446200070219</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>56.16677148840817</v>
+        <v>56.16677148840816</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>57.84313782955106</v>
+        <v>57.84313782955105</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>66.54969224610231</v>
+        <v>66.5496922461023</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>59.19331610466388</v>
+        <v>59.19331610466387</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>63.6421344715431</v>
+        <v>63.64213447154309</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>72.06089312812891</v>
+        <v>72.0608931281289</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>72.75635070287228</v>
+        <v>72.75635070287227</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>77.42848920121145</v>
+        <v>77.42848920121143</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>115.200070805963</v>
+        <v>115.2000708059629</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>41.84409675798956</v>
+        <v>41.84409675798955</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>48.09090594705614</v>
+        <v>48.09090594705613</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>87.49196252676472</v>
+        <v>87.49196252676471</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>58.22530246396546</v>
+        <v>58.22530246396545</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>56.33235662525183</v>
+        <v>56.33235662525182</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>64.55739532528249</v>
+        <v>64.55739532528247</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>57.97296829967804</v>
+        <v>57.97296829967803</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>66.68743563427314</v>
+        <v>66.68743563427313</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>73.39553863819268</v>
+        <v>73.39553863819266</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>69.0744992441698</v>
+        <v>69.07449924416979</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>23.32435168290183</v>
+        <v>23.32435168290182</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>42.56505151309647</v>
+        <v>42.56505151309646</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>77.96832605442565</v>
+        <v>77.96832605442563</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>58.04740834349802</v>
+        <v>58.04740834349801</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>55.0103131698505</v>
+        <v>55.01031316985049</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>66.90665277119183</v>
+        <v>66.90665277119182</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>53.09187015077333</v>
+        <v>53.09187015077332</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>56.7578957733881</v>
+        <v>56.75789577338809</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>59.87412012747419</v>
+        <v>59.87412012747418</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>47.59180596821587</v>
+        <v>47.59180596821586</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>91.23887575605002</v>
+        <v>91.23887575605001</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>81.48195473693652</v>
+        <v>81.4819547369365</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>45.56639202002731</v>
+        <v>45.5663920200273</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>50.68165392882243</v>
+        <v>50.68165392882242</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>59.70091514362533</v>
+        <v>59.70091514362532</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>49.33675093240552</v>
+        <v>49.33675093240551</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>50.21567097735089</v>
+        <v>50.21567097735088</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>816</v>
       </c>
       <c r="B816">
-        <v>64.56530824332634</v>
+        <v>64.56530824332633</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>53.82308239223339</v>
+        <v>53.82308239223338</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>73.77242799391117</v>
+        <v>73.77242799391115</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>79.21153340042707</v>
+        <v>79.21153340042706</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>94.38352800088626</v>
+        <v>94.38352800088624</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>118.3798915754386</v>
+        <v>118.3798915754385</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>63.65473652620554</v>
+        <v>63.65473652620553</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>64.94747287774074</v>
+        <v>64.94747287774072</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>90.04461127350504</v>
+        <v>90.04461127350503</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>55.45372965134512</v>
+        <v>55.45372965134511</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>84.66646464303069</v>
+        <v>84.66646464303068</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>76.89861676331174</v>
+        <v>76.89861676331172</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>903</v>
       </c>
       <c r="B903">
-        <v>70.56798925718802</v>
+        <v>70.567989257188</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>77.16824211888017</v>
+        <v>77.16824211888016</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>69.54605054537591</v>
+        <v>69.54605054537589</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>70.05540801056932</v>
+        <v>70.05540801056931</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>55.72892335664812</v>
+        <v>55.72892335664811</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>977</v>
       </c>
       <c r="B977">
-        <v>6.967412258927091</v>
+        <v>6.96741225892709</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>33.22546365303672</v>
+        <v>33.22546365303671</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>54.05753922316247</v>
+        <v>54.05753922316246</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>52.06758687065193</v>
+        <v>52.06758687065192</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>77.38540775852823</v>
+        <v>77.38540775852822</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>46.36882052388207</v>
+        <v>46.36882052388206</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>1070</v>
       </c>
       <c r="B1070">
-        <v>43.92783184287173</v>
+        <v>43.92783184287172</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>98.94048958103151</v>
+        <v>98.9404895810315</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>95.65721473490846</v>
+        <v>95.65721473490844</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>90.56393315401294</v>
+        <v>90.56393315401291</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>1120</v>
       </c>
       <c r="B1120">
-        <v>90.05457568881953</v>
+        <v>90.05457568881951</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>57.56325498762948</v>
+        <v>57.56325498762947</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>60.86206259880158</v>
+        <v>60.86206259880157</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>61.43267191107522</v>
+        <v>61.43267191107521</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>42.48621540369657</v>
+        <v>42.48621540369656</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>50.61043766642772</v>
+        <v>50.61043766642771</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>51.13532789667019</v>
+        <v>51.13532789667018</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>53.41542057745546</v>
+        <v>53.41542057745545</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>53.02798066434516</v>
+        <v>53.02798066434515</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>37.4213617135512</v>
+        <v>37.42136171355119</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>31.98782465676986</v>
+        <v>31.98782465676985</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>73.54324644167799</v>
+        <v>73.54324644167798</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>69.14131944098459</v>
+        <v>69.14131944098457</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>70.07328534392767</v>
+        <v>70.07328534392765</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>23.94249711764634</v>
+        <v>23.94249711764633</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>60.47491575672994</v>
+        <v>60.47491575672993</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>33.89806168676451</v>
+        <v>33.8980616867645</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>52.08282656466232</v>
+        <v>52.08282656466231</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>71.89208420985997</v>
+        <v>71.89208420985996</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>95.1399443516712</v>
+        <v>95.13994435167118</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>52.89082341825165</v>
+        <v>52.89082341825164</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>52.97727937465675</v>
+        <v>52.97727937465674</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13615,7 +13615,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>42.70015726191935</v>
+        <v>42.70015726191934</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>43.13829846471806</v>
+        <v>43.13829846471805</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>82.83447758035862</v>
+        <v>82.83447758035861</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>57.83346648527524</v>
+        <v>57.83346648527523</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>54.92356414240674</v>
+        <v>54.92356414240673</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>69.64803926683005</v>
+        <v>69.64803926683004</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>52.23580964684354</v>
+        <v>52.23580964684353</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>71.51314335687086</v>
+        <v>71.51314335687084</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>55.70049546589797</v>
+        <v>55.70049546589796</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>41.98154707512173</v>
+        <v>41.98154707512172</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>38.47348674234543</v>
+        <v>38.47348674234542</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>40.01504040570411</v>
+        <v>40.0150404057041</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>67.70937434608526</v>
+        <v>67.70937434608524</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>50.28718031078426</v>
+        <v>50.28718031078425</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>2.826620345812103</v>
+        <v>2.826620345812102</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>44.4579973518101</v>
+        <v>44.45799735181009</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>27.91246671445679</v>
+        <v>27.91246671445678</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>54.8192308526433</v>
+        <v>54.81923085264329</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16759,7 +16759,7 @@
         <v>2052</v>
       </c>
       <c r="B2052">
-        <v>66.26687869379411</v>
+        <v>66.2668786937941</v>
       </c>
     </row>
     <row r="2053" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>59.58866893581804</v>
+        <v>59.58866893581803</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>46.19796010834251</v>
+        <v>46.1979601083425</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>19.32445953304406</v>
+        <v>19.32445953304405</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>4.340704460717052</v>
+        <v>4.340704460717051</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>57.41818482349211</v>
+        <v>57.4181848234921</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19431,7 +19431,7 @@
         <v>2386</v>
       </c>
       <c r="B2386">
-        <v>67.19737924154389</v>
+        <v>67.19737924154387</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>38.53708315773494</v>
+        <v>38.53708315773493</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>8.451582612915876</v>
+        <v>8.451582612915875</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>40.76911218817975</v>
+        <v>40.76911218817974</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>48.03492937867182</v>
+        <v>48.03492937867181</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>46.42977929992363</v>
+        <v>46.42977929992362</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>42.77371809262335</v>
+        <v>42.77371809262334</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>15.39323392754464</v>
+        <v>15.39323392754463</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>9.955154269664042</v>
+        <v>9.955154269664041</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>18.52077082372305</v>
+        <v>18.52077082372304</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>20.63639203761157</v>
+        <v>20.63639203761156</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>5.627432855959688</v>
+        <v>5.627432855959687</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>12.4158666315763</v>
+        <v>12.41586663157629</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>21.86942981857145</v>
+        <v>21.86942981857144</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>43.46448653074814</v>
+        <v>43.46448653074813</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>36.50141172319324</v>
+        <v>36.50141172319323</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>35.06477749167532</v>
+        <v>35.06477749167531</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>33.39603099753762</v>
+        <v>33.39603099753761</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>50.23120374239994</v>
+        <v>50.23120374239993</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>70.18787612004425</v>
+        <v>70.18787612004424</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>3.602458514329123</v>
+        <v>3.602458514329122</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>19.59229715527666</v>
+        <v>19.59229715527665</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>43.21742764515663</v>
+        <v>43.21742764515662</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>43.97911927463746</v>
+        <v>43.97911927463745</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>56.42174329204354</v>
+        <v>56.42174329204353</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62775,7 +62775,7 @@
         <v>7804</v>
       </c>
       <c r="B7804">
-        <v>46.79670424032764</v>
+        <v>46.79670424032763</v>
       </c>
     </row>
     <row r="7805" spans="1:2">
@@ -62911,7 +62911,7 @@
         <v>7821</v>
       </c>
       <c r="B7821">
-        <v>39.24016057948351</v>
+        <v>39.2401605794835</v>
       </c>
     </row>
     <row r="7822" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>54.08538097183529</v>
+        <v>54.08538097183528</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>98.21777639969264</v>
+        <v>98.21777639969262</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>91.5454280624898</v>
+        <v>91.54542806248978</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63135,7 +63135,7 @@
         <v>7849</v>
       </c>
       <c r="B7849">
-        <v>55.38984016491694</v>
+        <v>55.38984016491693</v>
       </c>
     </row>
     <row r="7850" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>55.77464243867929</v>
+        <v>55.77464243867928</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>48.67704802437883</v>
+        <v>48.67704802437882</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63295,7 +63295,7 @@
         <v>7869</v>
       </c>
       <c r="B7869">
-        <v>46.99775097284932</v>
+        <v>46.99775097284931</v>
       </c>
     </row>
     <row r="7870" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>31.04501512539631</v>
+        <v>31.0450151253963</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>70.30041539889021</v>
+        <v>70.30041539889019</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>59.49136935098247</v>
+        <v>59.49136935098246</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>48.05778891968741</v>
+        <v>48.0577889196874</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>44.42488032444137</v>
+        <v>44.42488032444136</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>60.26331846681645</v>
+        <v>60.26331846681644</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64399,7 +64399,7 @@
         <v>8007</v>
       </c>
       <c r="B8007">
-        <v>58.53654390702381</v>
+        <v>58.5365439070238</v>
       </c>
     </row>
     <row r="8008" spans="1:2">
@@ -64407,7 +64407,7 @@
         <v>8008</v>
       </c>
       <c r="B8008">
-        <v>56.55948668021437</v>
+        <v>56.55948668021436</v>
       </c>
     </row>
     <row r="8009" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>2.22467001666402</v>
+        <v>2.224670016664019</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>42.05540097686439</v>
+        <v>42.05540097686438</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>40.65921054868174</v>
+        <v>40.65921054868173</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>43.46712417009609</v>
+        <v>43.46712417009608</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>42.24912093341954</v>
+        <v>42.24912093341953</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>58.66608130611212</v>
+        <v>58.66608130611211</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>72.14178073479944</v>
+        <v>72.14178073479943</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66871,7 +66871,7 @@
         <v>8316</v>
       </c>
       <c r="B8316">
-        <v>63.62660170649405</v>
+        <v>63.62660170649404</v>
       </c>
     </row>
     <row r="8317" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>65.96149867150899</v>
+        <v>65.96149867150898</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>28.56399294050482</v>
+        <v>28.56399294050481</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>25.93189263518342</v>
+        <v>25.93189263518341</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>29.20833892610566</v>
+        <v>29.20833892610565</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67583,7 +67583,7 @@
         <v>8405</v>
       </c>
       <c r="B8405">
-        <v>26.8180808418876</v>
+        <v>26.81808084188759</v>
       </c>
     </row>
     <row r="8406" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>80.4069701671267</v>
+        <v>80.40697016712669</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>74.12675087965273</v>
+        <v>74.12675087965272</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67847,7 +67847,7 @@
         <v>8438</v>
       </c>
       <c r="B8438">
-        <v>57.92461157829892</v>
+        <v>57.92461157829891</v>
       </c>
     </row>
     <row r="8439" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>58.88295387472152</v>
+        <v>58.88295387472151</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68207,7 +68207,7 @@
         <v>8483</v>
       </c>
       <c r="B8483">
-        <v>49.79540710791052</v>
+        <v>49.79540710791051</v>
       </c>
     </row>
     <row r="8484" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>34.86080004876703</v>
+        <v>34.86080004876702</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>50.36836098849345</v>
+        <v>50.36836098849344</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>39.83890471146864</v>
+        <v>39.83890471146863</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>49.36986795977425</v>
+        <v>49.36986795977424</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>56.30685944488829</v>
+        <v>56.30685944488828</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>59.88379147175001</v>
+        <v>59.88379147175</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68783,7 +68783,7 @@
         <v>8555</v>
       </c>
       <c r="B8555">
-        <v>50.22358389539475</v>
+        <v>50.22358389539474</v>
       </c>
     </row>
     <row r="8556" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>56.5744333031861</v>
+        <v>56.57443330318609</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>57.54801529361909</v>
+        <v>57.54801529361908</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>57.82555356723138</v>
+        <v>57.82555356723137</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>97.47396210357014</v>
+        <v>97.47396210357012</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69095,7 +69095,7 @@
         <v>8594</v>
       </c>
       <c r="B8594">
-        <v>46.49073807596519</v>
+        <v>46.49073807596518</v>
       </c>
     </row>
     <row r="8595" spans="1:2">
@@ -69143,7 +69143,7 @@
         <v>8600</v>
       </c>
       <c r="B8600">
-        <v>59.61152847683362</v>
+        <v>59.61152847683361</v>
       </c>
     </row>
     <row r="8601" spans="1:2">
@@ -69343,7 +69343,7 @@
         <v>8625</v>
       </c>
       <c r="B8625">
-        <v>55.20374005536699</v>
+        <v>55.20374005536698</v>
       </c>
     </row>
     <row r="8626" spans="1:2">
@@ -69471,7 +69471,7 @@
         <v>8641</v>
       </c>
       <c r="B8641">
-        <v>50.42433755687777</v>
+        <v>50.42433755687776</v>
       </c>
     </row>
     <row r="8642" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>58.81115147024949</v>
+        <v>58.81115147024948</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>33.05987851619306</v>
+        <v>33.05987851619305</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>61.57334600963267</v>
+        <v>61.57334600963266</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>61.93265110303148</v>
+        <v>61.93265110303147</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>62.48245237156016</v>
+        <v>62.48245237156015</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>64.14738894219526</v>
+        <v>64.14738894219525</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
